--- a/Results/output_df_A2_D1_and_D2_predictions.xlsx
+++ b/Results/output_df_A2_D1_and_D2_predictions.xlsx
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>1</v>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>1</v>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="B732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="B733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C733" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="B747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C747" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="B755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="B766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="B777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="B789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C789" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="B809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C809" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="B830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C830" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="B832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C832" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>1</v>
       </c>
       <c r="B889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C889" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>1</v>
       </c>
       <c r="B900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C900" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="B908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="B915" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C915" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
       <c r="B920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C920" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
       <c r="B964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C964" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="B983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="B994" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C994" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
       <c r="B999" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="B1036" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>1</v>
       </c>
       <c r="B1064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>1</v>
       </c>
       <c r="B1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>1</v>
       </c>
       <c r="B1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="B1097" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="B1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>1</v>
       </c>
       <c r="B1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>1</v>
       </c>
       <c r="B1151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="B1178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>1</v>
       </c>
       <c r="B1199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>0</v>
       </c>
       <c r="B1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>1</v>
       </c>
       <c r="B1243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="B1253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>1</v>
       </c>
       <c r="B1276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="B1283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="B1311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>0</v>
       </c>
       <c r="B1315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>1</v>
       </c>
       <c r="B1316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1316" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>1</v>
       </c>
       <c r="B1318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1318" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>0</v>
       </c>
       <c r="B1329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1329" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>1</v>
       </c>
       <c r="B1332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1332" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>0</v>
       </c>
       <c r="B1384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="B1387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1387" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="B1388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1388" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>1</v>
       </c>
       <c r="B1391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>0</v>
       </c>
       <c r="B1397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1397" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="B1408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>0</v>
       </c>
       <c r="B1414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1414" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>1</v>
       </c>
       <c r="B1423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1423" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>0</v>
       </c>
       <c r="B1425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1425" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>0</v>
       </c>
       <c r="B1437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>1</v>
       </c>
       <c r="B1471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>0</v>
       </c>
       <c r="B1493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>1</v>
       </c>
       <c r="B1503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>1</v>
       </c>
       <c r="B1527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>1</v>
       </c>
       <c r="B1531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>0</v>
       </c>
       <c r="B1539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="B1579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
@@ -28931,7 +28931,7 @@
         <v>1</v>
       </c>
       <c r="B1582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>0</v>
       </c>
       <c r="B1594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>1</v>
       </c>
       <c r="B1597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>0</v>
       </c>
       <c r="B1602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>1</v>
       </c>
       <c r="B1613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
@@ -29835,12 +29835,12 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Book me for a meeting at 2 PM today.</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>Log a meeting at 2 PM today on my calendar.</t>
+          <t>Book a meeting for me at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -29853,12 +29853,12 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Add a meeting at 2 PM today.</t>
+          <t>Register a meeting at 2 PM today in my schedule.</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr">
         <is>
-          <t>Schedule a discussion for 2 PM today.</t>
+          <t>Place a meeting in my agenda for 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -29871,12 +29871,12 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Set a calendar event for a meeting at 2 PM today.</t>
+          <t>Set a reminder for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Schedule a discussion for 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -29889,12 +29889,12 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Can you set up a meeting at 2 PM today?</t>
+          <t>Please add a meeting to my calendar for 2 PM today.</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr">
         <is>
-          <t>Put a meeting on my schedule for 2 PM today.</t>
+          <t>Set a calendar event for a meeting at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -29907,7 +29907,7 @@
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Set a reminder for a meeting at 2 PM today.</t>
+          <t>Put a meeting on my schedule for 2 PM today.</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr">
@@ -29925,12 +29925,12 @@
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>I need a meeting added at 2 PM today.</t>
+          <t>Schedule a discussion for 2 PM today.</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr">
         <is>
-          <t>Put a meeting on my schedule for 2 PM today.</t>
+          <t>Can you log a meeting at 2 PM today?</t>
         </is>
       </c>
     </row>
@@ -29948,7 +29948,7 @@
       </c>
       <c r="D1638" t="inlineStr">
         <is>
-          <t>Create a meeting at 2 PM today.</t>
+          <t>Reserve a slot for a meeting at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -29961,12 +29961,12 @@
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Book me for a meeting at 2 PM today.</t>
+          <t>Arrange a call or meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>Can you set up a meeting at 2 PM today?</t>
+          <t>Set an event titled 'Meeting' for 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -29979,12 +29979,12 @@
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Arrange a meeting at 2 PM today.</t>
+          <t>Can you log a meeting at 2 PM today?</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>Remind me about a meeting at 2 PM today.</t>
+          <t>Can you set up a meeting at 2 PM today?</t>
         </is>
       </c>
     </row>
@@ -29997,12 +29997,12 @@
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Remind me about a meeting at 2 PM today.</t>
+          <t>Set a calendar event for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>I want to schedule a meeting at 2 PM today.</t>
+          <t>Arrange a meeting at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -30015,12 +30015,12 @@
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Book me for a meeting at 2 PM today.</t>
+          <t>I need a meeting added at 2 PM today.</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Reserve a slot for a meeting at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -30033,7 +30033,7 @@
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Place a meeting in my agenda for 2 PM today.</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr">
@@ -30051,12 +30051,12 @@
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Add a 2 PM meeting to my calendar today.</t>
+          <t>I want to schedule a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>Please add a meeting to my calendar for 2 PM today.</t>
+          <t>Can you set up a meeting at 2 PM today?</t>
         </is>
       </c>
     </row>
@@ -30069,12 +30069,12 @@
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Create a meeting at 2 PM today.</t>
+          <t>Register a meeting at 2 PM today in my schedule.</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>Schedule a meeting for 2 PM today.</t>
+          <t>Arrange a call or meeting at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -30087,12 +30087,12 @@
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Set a reminder for a meeting at 2 PM today.</t>
+          <t>I want to schedule a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr">
         <is>
-          <t>Ensure I have a meeting scheduled at 2 PM today.</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -30105,12 +30105,12 @@
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Please add a meeting to my calendar for 2 PM today.</t>
+          <t>Arrange a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr">
         <is>
-          <t>Add a meeting at 2 PM today.</t>
+          <t>Arrange a call or meeting at 2 PM today.</t>
         </is>
       </c>
     </row>
@@ -30123,12 +30123,12 @@
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Put a meeting on my schedule for 2 PM today.</t>
+          <t>Let’s time 20 minutes.</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr">
         <is>
-          <t>Schedule a discussion for 2 PM today.</t>
+          <t>I need a countdown for 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -30141,12 +30141,12 @@
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>Reserve a slot for a meeting at 2 PM today.</t>
+          <t>Count down 20 minutes.</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>Mark a meeting in my calendar for 2 PM today.</t>
+          <t>Make a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30159,12 +30159,12 @@
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>Set a calendar event for a meeting at 2 PM today.</t>
+          <t>I need a countdown for 20 minutes.</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>I want to schedule a meeting at 2 PM today.</t>
+          <t>Start a countdown for 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -30177,12 +30177,12 @@
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Can you time me for 20 minutes?</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Let’s time 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -30195,12 +30195,12 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Can you log a meeting at 2 PM today?</t>
+          <t>Begin a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>Schedule a meeting for 2 PM today.</t>
+          <t>Can you run a timer for 20 minutes?</t>
         </is>
       </c>
     </row>
@@ -30213,12 +30213,12 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Arrange a meeting at 2 PM today.</t>
+          <t>I need a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>Arrange a call or meeting at 2 PM today.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30231,12 +30231,12 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Let’s time 20 minutes.</t>
+          <t>Set a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Please enable a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30249,12 +30249,12 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>I need a countdown for 20 minutes.</t>
+          <t>Get a timer going for 20 minutes.</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr">
         <is>
-          <t>Turn on a timer for 20 minutes.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30267,12 +30267,12 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Start a countdown for 20 minutes.</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>Can you run a timer for 20 minutes?</t>
+          <t>Make a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30285,12 +30285,12 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Set a timer for 20 minutes.</t>
+          <t>Activate a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>I need a countdown for 20 minutes.</t>
+          <t>Can you run a timer for 20 minutes?</t>
         </is>
       </c>
     </row>
@@ -30303,12 +30303,12 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Run a 20-minute timer.</t>
+          <t>Launch a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>Can you set a timer for 20 minutes?</t>
+          <t>Get a timer going for 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -30321,12 +30321,12 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Set a timer for 20 minutes.</t>
+          <t>Count down 20 minutes.</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr">
         <is>
-          <t>Launch a timer for 20 minutes.</t>
+          <t>I want a timer for 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -30339,12 +30339,12 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>Launch a timer for 20 minutes.</t>
+          <t>I want a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>Make a 20-minute timer.</t>
+          <t>Can you set a timer for 20 minutes?</t>
         </is>
       </c>
     </row>
@@ -30357,12 +30357,12 @@
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Can you set a timer for 20 minutes?</t>
+          <t>Could you set a 20-minute timer?</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>Run a 20-minute timer.</t>
+          <t>I need a countdown for 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -30375,12 +30375,12 @@
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>Put on a timer for 20 minutes.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>Turn on a timer for 20 minutes.</t>
+          <t>I need a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30393,12 +30393,12 @@
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Start a 20-minute timer.</t>
+          <t>Activate a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr">
         <is>
-          <t>Can you run a timer for 20 minutes?</t>
+          <t>Enable a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30416,7 +30416,7 @@
       </c>
       <c r="D1664" t="inlineStr">
         <is>
-          <t>I need a countdown for 20 minutes.</t>
+          <t>Begin counting down 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -30429,12 +30429,12 @@
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Kick off a 20-minute timer.</t>
+          <t>Can you run a timer for 20 minutes?</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>Run a 20-minute timer.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -30447,12 +30447,12 @@
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Activate a timer for 20 minutes.</t>
+          <t>Play my playlist for the party.</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr">
         <is>
-          <t>Enable a 20-minute timer.</t>
+          <t>Please play my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30465,12 +30465,12 @@
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Start a countdown for 20 minutes.</t>
+          <t>Play my playlist for the party.</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>Count down 20 minutes.</t>
+          <t>Queue up my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30483,12 +30483,12 @@
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Kick off a 20-minute timer.</t>
+          <t>Time for my party playlist—play it!</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>Let’s time 20 minutes.</t>
+          <t>Play my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30501,12 +30501,12 @@
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Start a 20-minute timer.</t>
+          <t>Can you start my party playlist?</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>Schedule a timer for 20 minutes.</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
     </row>
@@ -30519,12 +30519,12 @@
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Play my playlist for the party.</t>
+          <t>Launch my party playlist.</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>Please play my party playlist.</t>
+          <t>Get the party playlist started.</t>
         </is>
       </c>
     </row>
@@ -30537,12 +30537,12 @@
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>Launch my party playlist.</t>
+          <t>Activate my party playlist.</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>Get the party playlist started.</t>
+          <t>Can you start my party playlist?</t>
         </is>
       </c>
     </row>
@@ -30555,12 +30555,12 @@
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>Get my party playlist going.</t>
+          <t>Turn up my party playlist.</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>I need my party playlist now.</t>
+          <t>Run my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30573,12 +30573,12 @@
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>Queue up my party playlist.</t>
+          <t>Start playing my party playlist.</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>Put on some party music from my playlist.</t>
+          <t>Play my favorite party songs.</t>
         </is>
       </c>
     </row>
@@ -30591,12 +30591,12 @@
       </c>
       <c r="C1674" t="inlineStr">
         <is>
+          <t>Get my party playlist going.</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
           <t>I need my party playlist now.</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr">
-        <is>
-          <t>Get my party playlist going.</t>
         </is>
       </c>
     </row>
@@ -30609,12 +30609,12 @@
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>I need my party playlist now.</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>Let’s hear my party playlist.</t>
+          <t>Get my party playlist going.</t>
         </is>
       </c>
     </row>
@@ -30627,12 +30627,12 @@
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Play my playlist for the party.</t>
+          <t>Can you start my party playlist?</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>Turn up my party playlist.</t>
+          <t>Play my favorite party songs.</t>
         </is>
       </c>
     </row>
@@ -30645,12 +30645,12 @@
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Put on my party playlist.</t>
+          <t>I need my party playlist now.</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>I want to listen to my party playlist.</t>
+          <t>Put on some party music from my playlist.</t>
         </is>
       </c>
     </row>
@@ -30663,12 +30663,12 @@
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Play my favorite party songs.</t>
+          <t>Begin my party playlist.</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>Put on some party music from my playlist.</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
     </row>
@@ -30681,12 +30681,12 @@
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Turn on my party playlist.</t>
+          <t>Run my party playlist.</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>I need my party playlist now.</t>
+          <t>Let’s hear my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30699,12 +30699,12 @@
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>Play my favorite party songs.</t>
+          <t>Would you play my party playlist?</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Get the party playlist started.</t>
         </is>
       </c>
     </row>
@@ -30717,12 +30717,12 @@
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>Shuffle my party playlist.</t>
+          <t>Activate my party playlist.</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>Begin my party playlist.</t>
+          <t>Start playing my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30735,12 +30735,12 @@
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>Shuffle my party playlist.</t>
+          <t>Play my favorite party songs.</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>Play my party mix.</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
     </row>
@@ -30753,12 +30753,12 @@
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>Play my playlist for the party.</t>
+          <t>Shuffle my party playlist.</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>Can you start my party playlist?</t>
+          <t>Let’s jam to my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30771,12 +30771,12 @@
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>Please play my party playlist.</t>
+          <t>Start playing my party playlist.</t>
         </is>
       </c>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>Please start playing my party playlist.</t>
+          <t>Put on some party music from my playlist.</t>
         </is>
       </c>
     </row>
@@ -30789,12 +30789,12 @@
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Play my favorite party songs.</t>
         </is>
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>Play my party mix.</t>
+          <t>Put on some party music from my playlist.</t>
         </is>
       </c>
     </row>
@@ -30807,12 +30807,12 @@
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>Turn on my party playlist.</t>
+          <t>Please play my party playlist.</t>
         </is>
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>Time for my party playlist—play it!</t>
+          <t>Let’s hear my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30825,12 +30825,12 @@
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>Is it going to rain today?</t>
+          <t>Shuffle my party playlist.</t>
         </is>
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>Check today's weather conditions.</t>
+          <t>Launch my party playlist.</t>
         </is>
       </c>
     </row>
@@ -30843,12 +30843,12 @@
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>How warm is it outside?</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>Give me the latest weather report.</t>
+          <t>Play my party mix.</t>
         </is>
       </c>
     </row>
@@ -30861,12 +30861,12 @@
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Is it cold outside?</t>
         </is>
       </c>
       <c r="D1689" t="inlineStr">
         <is>
-          <t>What's the temperature outside?</t>
+          <t>How’s the weather tomorrow?</t>
         </is>
       </c>
     </row>
@@ -30897,12 +30897,12 @@
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>What’s the forecast for today?</t>
+          <t>What’s the high and low temperature for today?</t>
         </is>
       </c>
       <c r="D1691" t="inlineStr">
         <is>
-          <t>Is it going to rain today?</t>
+          <t>Check the weather for my location.</t>
         </is>
       </c>
     </row>
@@ -30915,12 +30915,12 @@
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>Tell me the weather forecast.</t>
+          <t>Do I need a jacket today?</t>
         </is>
       </c>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>Will there be thunderstorms today?</t>
+          <t>What's the temperature outside?</t>
         </is>
       </c>
     </row>
@@ -30933,12 +30933,12 @@
       </c>
       <c r="C1693" t="inlineStr">
         <is>
-          <t>Is it cold outside?</t>
+          <t>Give me a weather update for the week.</t>
         </is>
       </c>
       <c r="D1693" t="inlineStr">
         <is>
-          <t>Tell me the current weather.</t>
+          <t>What’s the high and low temperature for today?</t>
         </is>
       </c>
     </row>
@@ -30951,12 +30951,12 @@
       </c>
       <c r="C1694" t="inlineStr">
         <is>
-          <t>Do I need sunglasses today?</t>
+          <t>What's the weather like today?</t>
         </is>
       </c>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>Is it going to rain today?</t>
+          <t>Is it going to be hot today?</t>
         </is>
       </c>
     </row>
@@ -30969,12 +30969,12 @@
       </c>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>Check today's weather conditions.</t>
+          <t>Give me the weather update.</t>
         </is>
       </c>
       <c r="D1695" t="inlineStr">
         <is>
-          <t>Check the weather for my location.</t>
+          <t>Will it be windy today?</t>
         </is>
       </c>
     </row>
@@ -30987,12 +30987,12 @@
       </c>
       <c r="C1696" t="inlineStr">
         <is>
-          <t>What’s the weather like this weekend?</t>
+          <t>Do I need sunglasses today?</t>
         </is>
       </c>
       <c r="D1696" t="inlineStr">
         <is>
-          <t>Is there a chance of snow today?</t>
+          <t>What's the weather like today?</t>
         </is>
       </c>
     </row>
@@ -31005,12 +31005,12 @@
       </c>
       <c r="C1697" t="inlineStr">
         <is>
-          <t>Will it be windy today?</t>
+          <t>What's the weather like in my city?</t>
         </is>
       </c>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>Will there be thunderstorms today?</t>
+          <t>How's the weather looking for today?</t>
         </is>
       </c>
     </row>
@@ -31023,12 +31023,12 @@
       </c>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>How's the weather right now?</t>
+          <t>Give me a weather update for the week.</t>
         </is>
       </c>
       <c r="D1698" t="inlineStr">
         <is>
-          <t>What's the temperature outside?</t>
+          <t>Is it going to rain today?</t>
         </is>
       </c>
     </row>
@@ -31041,7 +31041,7 @@
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>Tell me the current weather.</t>
+          <t>What's the weather like today?</t>
         </is>
       </c>
       <c r="D1699" t="inlineStr">
@@ -31059,12 +31059,12 @@
       </c>
       <c r="C1700" t="inlineStr">
         <is>
-          <t>How's the weather right now?</t>
+          <t>Is it cold outside?</t>
         </is>
       </c>
       <c r="D1700" t="inlineStr">
         <is>
-          <t>What's the weather like today?</t>
+          <t>How humid is it outside?</t>
         </is>
       </c>
     </row>
@@ -31077,12 +31077,12 @@
       </c>
       <c r="C1701" t="inlineStr">
         <is>
-          <t>How warm is it outside?</t>
+          <t>What's the temperature outside?</t>
         </is>
       </c>
       <c r="D1701" t="inlineStr">
         <is>
-          <t>What’s the forecast for today?</t>
+          <t>What’s the weather like this weekend?</t>
         </is>
       </c>
     </row>
@@ -31095,12 +31095,12 @@
       </c>
       <c r="C1702" t="inlineStr">
         <is>
-          <t>Is it going to be hot today?</t>
+          <t>What's the weather like today?</t>
         </is>
       </c>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>How humid is it outside?</t>
+          <t>Check today's weather conditions.</t>
         </is>
       </c>
     </row>
@@ -31113,12 +31113,12 @@
       </c>
       <c r="C1703" t="inlineStr">
         <is>
-          <t>Check the weather for my location.</t>
+          <t>Should I take an alternate road to work?</t>
         </is>
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Is traffic moving smoothly to my workplace?</t>
         </is>
       </c>
     </row>
@@ -31131,12 +31131,12 @@
       </c>
       <c r="C1704" t="inlineStr">
         <is>
-          <t>Tell me the weather forecast.</t>
+          <t>Is the traffic clear on my way to work?</t>
         </is>
       </c>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>How's the weather right now?</t>
+          <t>What’s my commute looking like today?</t>
         </is>
       </c>
     </row>
@@ -31149,12 +31149,12 @@
       </c>
       <c r="C1705" t="inlineStr">
         <is>
-          <t>What's the temperature outside?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>What’s the weather like this weekend?</t>
+          <t>Is the highway clear for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -31167,12 +31167,12 @@
       </c>
       <c r="C1706" t="inlineStr">
         <is>
-          <t>Is it going to be hot today?</t>
+          <t>Check the traffic to my workplace.</t>
         </is>
       </c>
       <c r="D1706" t="inlineStr">
         <is>
-          <t>Do I need an umbrella today?</t>
+          <t>Do I need to take an alternate route to work?</t>
         </is>
       </c>
     </row>
@@ -31185,12 +31185,12 @@
       </c>
       <c r="C1707" t="inlineStr">
         <is>
-          <t>What's the weather like today?</t>
+          <t>Any traffic delays on my way to work?</t>
         </is>
       </c>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>Check today's weather conditions.</t>
+          <t>Can you find the fastest way to work given the traffic?</t>
         </is>
       </c>
     </row>
@@ -31203,12 +31203,12 @@
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t>Can you check the traffic for my commute to work?</t>
+          <t>Any traffic delays on my way to work?</t>
         </is>
       </c>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>Is the highway clear for my commute to work?</t>
+          <t>Tell me the best route to work based on traffic.</t>
         </is>
       </c>
     </row>
@@ -31221,12 +31221,12 @@
       </c>
       <c r="C1709" t="inlineStr">
         <is>
-          <t>Is my usual route to work congested?</t>
+          <t>Is there heavy traffic on my route to work?</t>
         </is>
       </c>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>Is the highway clear for my commute to work?</t>
+          <t>Tell me the best route to work based on traffic.</t>
         </is>
       </c>
     </row>
@@ -31239,7 +31239,7 @@
       </c>
       <c r="C1710" t="inlineStr">
         <is>
-          <t>Is my usual route to work congested?</t>
+          <t>Give me a live traffic report for my work commute.</t>
         </is>
       </c>
       <c r="D1710" t="inlineStr">
@@ -31257,12 +31257,12 @@
       </c>
       <c r="C1711" t="inlineStr">
         <is>
+          <t>What’s the traffic like on my way to work?</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
           <t>Any traffic delays on my way to work?</t>
-        </is>
-      </c>
-      <c r="D1711" t="inlineStr">
-        <is>
-          <t>Tell me the best route to work based on traffic.</t>
         </is>
       </c>
     </row>
@@ -31275,12 +31275,12 @@
       </c>
       <c r="C1712" t="inlineStr">
         <is>
-          <t>Is there heavy traffic on my route to work?</t>
+          <t>Will I hit rush hour traffic on my way to work?</t>
         </is>
       </c>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>How busy is the traffic to my office?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -31293,12 +31293,12 @@
       </c>
       <c r="C1713" t="inlineStr">
         <is>
-          <t>Tell me the best route to work based on traffic.</t>
+          <t>What’s the traffic like on my way to work?</t>
         </is>
       </c>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>Can you find the fastest way to work given the traffic?</t>
+          <t>Check for any traffic jams on my way to work.</t>
         </is>
       </c>
     </row>
@@ -31311,12 +31311,12 @@
       </c>
       <c r="C1714" t="inlineStr">
         <is>
-          <t>Is there heavy traffic on my route to work?</t>
+          <t>Is traffic moving smoothly to my workplace?</t>
         </is>
       </c>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>Tell me the best route to work based on traffic.</t>
+          <t>Any traffic delays on my way to work?</t>
         </is>
       </c>
     </row>
@@ -31329,12 +31329,12 @@
       </c>
       <c r="C1715" t="inlineStr">
         <is>
-          <t>Please check the traffic for my work route.</t>
+          <t>Check the traffic to my workplace.</t>
         </is>
       </c>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>Show me live traffic updates for my work route.</t>
+          <t>Is my usual route to work congested?</t>
         </is>
       </c>
     </row>
@@ -31347,12 +31347,12 @@
       </c>
       <c r="C1716" t="inlineStr">
         <is>
-          <t>What’s the traffic like on my way to work?</t>
+          <t>How’s my commute to work today?</t>
         </is>
       </c>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>Any traffic delays on my way to work?</t>
+          <t>Can you find the fastest way to work given the traffic?</t>
         </is>
       </c>
     </row>
@@ -31365,12 +31365,12 @@
       </c>
       <c r="C1717" t="inlineStr">
         <is>
-          <t>How’s my commute to work today?</t>
+          <t>Is there heavy traffic on my route to work?</t>
         </is>
       </c>
       <c r="D1717" t="inlineStr">
         <is>
-          <t>Is the highway clear for my commute to work?</t>
+          <t>Check the traffic to my workplace.</t>
         </is>
       </c>
     </row>
@@ -31383,12 +31383,12 @@
       </c>
       <c r="C1718" t="inlineStr">
         <is>
-          <t>Is there heavy traffic on my route to work?</t>
+          <t>Is the highway clear for my commute to work?</t>
         </is>
       </c>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Do I need to take an alternate route to work?</t>
         </is>
       </c>
     </row>
@@ -31401,12 +31401,12 @@
       </c>
       <c r="C1719" t="inlineStr">
         <is>
-          <t>Do I need to leave earlier for work due to traffic?</t>
+          <t>What’s the estimated travel time to work now?</t>
         </is>
       </c>
       <c r="D1719" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>Can you find the fastest way to work given the traffic?</t>
         </is>
       </c>
     </row>
@@ -31419,12 +31419,12 @@
       </c>
       <c r="C1720" t="inlineStr">
         <is>
-          <t>What’s the traffic like on my way to work?</t>
+          <t>Is there heavy traffic on my route to work?</t>
         </is>
       </c>
       <c r="D1720" t="inlineStr">
         <is>
-          <t>Check for any traffic jams on my way to work.</t>
+          <t>Is the traffic clear on my way to work?</t>
         </is>
       </c>
     </row>
@@ -31437,7 +31437,7 @@
       </c>
       <c r="C1721" t="inlineStr">
         <is>
-          <t>Tell me the traffic conditions for my drive to work.</t>
+          <t>Do I need to leave earlier for work due to traffic?</t>
         </is>
       </c>
       <c r="D1721" t="inlineStr">
@@ -31448,217 +31448,217 @@
     </row>
     <row r="1722">
       <c r="A1722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1722" t="inlineStr">
         <is>
-          <t>How’s the traffic to work right now?</t>
+          <t>I need a meeting added at 2 PM today.</t>
         </is>
       </c>
       <c r="D1722" t="inlineStr">
         <is>
-          <t>Give me a live traffic report for my work commute.</t>
+          <t>Could you set a 20-minute timer?</t>
         </is>
       </c>
     </row>
     <row r="1723">
       <c r="A1723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1723" t="inlineStr">
         <is>
-          <t>How’s my commute to work today?</t>
+          <t>I need a meeting added at 2 PM today.</t>
         </is>
       </c>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>Can you find the fastest way to work given the traffic?</t>
+          <t>Get a timer going for 20 minutes.</t>
         </is>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1724" t="inlineStr">
         <is>
-          <t>What’s the estimated travel time to work now?</t>
+          <t>Set an event titled 'Meeting' for 2 PM today.</t>
         </is>
       </c>
       <c r="D1724" t="inlineStr">
         <is>
-          <t>Check for any traffic jams on my way to work.</t>
+          <t>Turn on a timer for 20 minutes.</t>
         </is>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1725" t="inlineStr">
         <is>
-          <t>Any construction work affecting my drive to work?</t>
+          <t>Set an event titled 'Meeting' for 2 PM today.</t>
         </is>
       </c>
       <c r="D1725" t="inlineStr">
         <is>
-          <t>What’s the estimated travel time to work now?</t>
+          <t>Can you set a timer for 20 minutes?</t>
         </is>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t>Check for any traffic jams on my way to work.</t>
+          <t>Book a meeting for me at 2 PM today.</t>
         </is>
       </c>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Enable a 20-minute timer.</t>
         </is>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1727" t="inlineStr">
         <is>
-          <t>Give me an update on the traffic to work.</t>
+          <t>Can you set up a meeting at 2 PM today?</t>
         </is>
       </c>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>Find me the quickest way to work right now.</t>
+          <t>Set a timer for 20 minutes.</t>
         </is>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1728" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Block off 2 PM today for a meeting.</t>
         </is>
       </c>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>Give me a live traffic report for my work commute.</t>
+          <t>Run a 20-minute timer.</t>
         </is>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1729" t="inlineStr">
         <is>
-          <t>How’s my commute to work today?</t>
+          <t>Log a work meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1729" t="inlineStr">
         <is>
-          <t>Will I hit rush hour traffic on my way to work?</t>
+          <t>Would you start a timer for 20 minutes?</t>
         </is>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1730" t="inlineStr">
         <is>
-          <t>Do I need to leave earlier for work due to traffic?</t>
+          <t>I want to schedule a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1730" t="inlineStr">
         <is>
-          <t>How’s my commute to work today?</t>
+          <t>Kick off a 20-minute timer.</t>
         </is>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1731" t="inlineStr">
         <is>
-          <t>Check for any traffic jams on my way to work.</t>
+          <t>Add a 2 PM meeting to my calendar today.</t>
         </is>
       </c>
       <c r="D1731" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>Could you set a 20-minute timer?</t>
         </is>
       </c>
     </row>
     <row r="1732">
       <c r="A1732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t>Should I take an alternate road to work?</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1732" t="inlineStr">
         <is>
-          <t>What’s the estimated travel time to work now?</t>
+          <t>Can you set a timer for 20 minutes?</t>
         </is>
       </c>
     </row>
     <row r="1733">
       <c r="A1733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1733" t="inlineStr">
         <is>
-          <t>Check the traffic to my workplace.</t>
+          <t>Make an entry for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1733" t="inlineStr">
         <is>
-          <t>Is there heavy traffic on my route to work?</t>
+          <t>Could you set a 20-minute timer?</t>
         </is>
       </c>
     </row>
@@ -31671,12 +31671,12 @@
       </c>
       <c r="C1734" t="inlineStr">
         <is>
-          <t>Schedule an appointment at 2 PM today.</t>
+          <t>Can you add a meeting to my planner for 2 PM today?</t>
         </is>
       </c>
       <c r="D1734" t="inlineStr">
         <is>
-          <t>Activate a timer for 20 minutes.</t>
+          <t>Let’s time 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -31689,12 +31689,12 @@
       </c>
       <c r="C1735" t="inlineStr">
         <is>
-          <t>Place a meeting in my agenda for 2 PM today.</t>
+          <t>Book a meeting for me at 2 PM today.</t>
         </is>
       </c>
       <c r="D1735" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Please start a timer for 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -31707,12 +31707,12 @@
       </c>
       <c r="C1736" t="inlineStr">
         <is>
-          <t>Log a meeting at 2 PM today on my calendar.</t>
+          <t>Reserve a slot for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1736" t="inlineStr">
         <is>
-          <t>Get a timer going for 20 minutes.</t>
+          <t>Could you set a 20-minute timer?</t>
         </is>
       </c>
     </row>
@@ -31725,12 +31725,12 @@
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>Set an event titled 'Meeting' for 2 PM today.</t>
+          <t>Arrange a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1737" t="inlineStr">
         <is>
-          <t>Can you set a timer for 20 minutes?</t>
+          <t>Begin a timer for 20 minutes.</t>
         </is>
       </c>
     </row>
@@ -31743,12 +31743,12 @@
       </c>
       <c r="C1738" t="inlineStr">
         <is>
-          <t>Can you set up a meeting at 2 PM today?</t>
+          <t>Remind me about a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1738" t="inlineStr">
         <is>
-          <t>I need a countdown for 20 minutes.</t>
+          <t>Please enable a 20-minute timer.</t>
         </is>
       </c>
     </row>
@@ -31761,12 +31761,12 @@
       </c>
       <c r="C1739" t="inlineStr">
         <is>
-          <t>Register a meeting at 2 PM today in my schedule.</t>
+          <t>Reserve a slot for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1739" t="inlineStr">
         <is>
-          <t>Turn on a timer for 20 minutes.</t>
+          <t>Queue up my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31779,12 +31779,12 @@
       </c>
       <c r="C1740" t="inlineStr">
         <is>
-          <t>Book me for a meeting at 2 PM today.</t>
+          <t>Block off 2 PM today for a meeting.</t>
         </is>
       </c>
       <c r="D1740" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Shuffle my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31797,12 +31797,12 @@
       </c>
       <c r="C1741" t="inlineStr">
         <is>
-          <t>I want to schedule a meeting at 2 PM today.</t>
+          <t>Remind me about a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1741" t="inlineStr">
         <is>
-          <t>Fire up a 20-minute timer.</t>
+          <t>Start my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31815,12 +31815,12 @@
       </c>
       <c r="C1742" t="inlineStr">
         <is>
-          <t>Book me for a meeting at 2 PM today.</t>
+          <t>Set a calendar event for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>Can you set a timer for 20 minutes?</t>
+          <t>I want to listen to my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31833,12 +31833,12 @@
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>Schedule a discussion for 2 PM today.</t>
+          <t>Add a 2 PM meeting to my calendar today.</t>
         </is>
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>Start a countdown for 20 minutes.</t>
+          <t>Play my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31851,12 +31851,12 @@
       </c>
       <c r="C1744" t="inlineStr">
         <is>
-          <t>I need a meeting added at 2 PM today.</t>
+          <t>Set a calendar event for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>Fire up a 20-minute timer.</t>
+          <t>Play my party mix.</t>
         </is>
       </c>
     </row>
@@ -31869,12 +31869,12 @@
       </c>
       <c r="C1745" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Mark a meeting in my calendar for 2 PM today.</t>
         </is>
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>Would you start a timer for 20 minutes?</t>
+          <t>Start my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31887,12 +31887,12 @@
       </c>
       <c r="C1746" t="inlineStr">
         <is>
-          <t>Can you add a meeting to my planner for 2 PM today?</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>Start a 20-minute timer.</t>
+          <t>Launch my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31905,12 +31905,12 @@
       </c>
       <c r="C1747" t="inlineStr">
         <is>
-          <t>Mark a meeting in my calendar for 2 PM today.</t>
+          <t>Reserve a slot for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>Please start a timer for 20 minutes.</t>
+          <t>Turn up my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31923,12 +31923,12 @@
       </c>
       <c r="C1748" t="inlineStr">
         <is>
-          <t>I want to schedule a meeting at 2 PM today.</t>
+          <t>Ensure I have a meeting scheduled at 2 PM today.</t>
         </is>
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>Kick off a 20-minute timer.</t>
+          <t>Get the party playlist started.</t>
         </is>
       </c>
     </row>
@@ -31941,12 +31941,12 @@
       </c>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>Set a calendar event for a meeting at 2 PM today.</t>
+          <t>Mark a meeting in my calendar for 2 PM today.</t>
         </is>
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>Can you time me for 20 minutes?</t>
+          <t>Play my playlist for the party.</t>
         </is>
       </c>
     </row>
@@ -31959,12 +31959,12 @@
       </c>
       <c r="C1750" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Set a reminder for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>Could you set a 20-minute timer?</t>
+          <t>Time for my party playlist—play it!</t>
         </is>
       </c>
     </row>
@@ -31977,12 +31977,12 @@
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>Can you set up a meeting at 2 PM today?</t>
+          <t>Mark a meeting in my calendar for 2 PM today.</t>
         </is>
       </c>
       <c r="D1751" t="inlineStr">
         <is>
-          <t>Please enable a 20-minute timer.</t>
+          <t>Put on my party playlist.</t>
         </is>
       </c>
     </row>
@@ -31995,12 +31995,12 @@
       </c>
       <c r="C1752" t="inlineStr">
         <is>
-          <t>Can you set up a meeting at 2 PM today?</t>
+          <t>Book me for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>Could you set a 20-minute timer?</t>
+          <t>Run my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32013,12 +32013,12 @@
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Remind me about a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>Turn on a timer for 20 minutes.</t>
+          <t>Launch my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32031,12 +32031,12 @@
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>Arrange a meeting at 2 PM today.</t>
+          <t>Put a meeting on my schedule for 2 PM today.</t>
         </is>
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Turn up my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32049,12 +32049,12 @@
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>I need a meeting added at 2 PM today.</t>
+          <t>Can you set up a meeting at 2 PM today?</t>
         </is>
       </c>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>Activate my party playlist.</t>
+          <t>Play my favorite party songs.</t>
         </is>
       </c>
     </row>
@@ -32067,12 +32067,12 @@
       </c>
       <c r="C1756" t="inlineStr">
         <is>
-          <t>Remind me about a meeting at 2 PM today.</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1756" t="inlineStr">
         <is>
-          <t>Start my party playlist.</t>
+          <t>Shuffle my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32085,12 +32085,12 @@
       </c>
       <c r="C1757" t="inlineStr">
         <is>
-          <t>Block off 2 PM today for a meeting.</t>
+          <t>Add a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1757" t="inlineStr">
         <is>
-          <t>Let’s hear my party playlist.</t>
+          <t>Queue up my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32103,12 +32103,12 @@
       </c>
       <c r="C1758" t="inlineStr">
         <is>
-          <t>Log a meeting at 2 PM today on my calendar.</t>
+          <t>Book me for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Please start playing my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32121,12 +32121,12 @@
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t>Set a calendar event for a meeting at 2 PM today.</t>
+          <t>Arrange a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1759" t="inlineStr">
         <is>
-          <t>Play my party mix.</t>
+          <t>Please play my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32139,12 +32139,12 @@
       </c>
       <c r="C1760" t="inlineStr">
         <is>
-          <t>Log a meeting at 2 PM today on my calendar.</t>
+          <t>Mark a meeting in my calendar for 2 PM today.</t>
         </is>
       </c>
       <c r="D1760" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Please play my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32157,12 +32157,12 @@
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>Log a meeting at 2 PM today on my calendar.</t>
+          <t>Ensure I have a meeting scheduled at 2 PM today.</t>
         </is>
       </c>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>Launch my party playlist.</t>
+          <t>Play my favorite party songs.</t>
         </is>
       </c>
     </row>
@@ -32175,12 +32175,12 @@
       </c>
       <c r="C1762" t="inlineStr">
         <is>
-          <t>Ensure I have a meeting scheduled at 2 PM today.</t>
+          <t>Make an entry for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1762" t="inlineStr">
         <is>
-          <t>Get the party playlist started.</t>
+          <t>Is it going to be hot today?</t>
         </is>
       </c>
     </row>
@@ -32193,12 +32193,12 @@
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>Schedule a meeting for 2 PM today.</t>
+          <t>I want to schedule a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>Get my party playlist going.</t>
+          <t>Tell me the current weather.</t>
         </is>
       </c>
     </row>
@@ -32211,12 +32211,12 @@
       </c>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Please add a meeting to my calendar for 2 PM today.</t>
         </is>
       </c>
       <c r="D1764" t="inlineStr">
         <is>
-          <t>Play my playlist for the party.</t>
+          <t>How's the weather right now?</t>
         </is>
       </c>
     </row>
@@ -32229,12 +32229,12 @@
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>Can you set up a meeting at 2 PM today?</t>
+          <t>Book me for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1765" t="inlineStr">
         <is>
-          <t>Play my favorite party songs.</t>
+          <t>What's the temperature outside?</t>
         </is>
       </c>
     </row>
@@ -32247,12 +32247,12 @@
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1766" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Do I need a jacket today?</t>
         </is>
       </c>
     </row>
@@ -32265,12 +32265,12 @@
       </c>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>Please add a meeting to my calendar for 2 PM today.</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1767" t="inlineStr">
         <is>
-          <t>Please play my party playlist.</t>
+          <t>What’s the forecast for today?</t>
         </is>
       </c>
     </row>
@@ -32283,12 +32283,12 @@
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t>Set an event titled 'Meeting' for 2 PM today.</t>
+          <t>Log a work meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1768" t="inlineStr">
         <is>
-          <t>Run my party playlist.</t>
+          <t>How’s the weather tomorrow?</t>
         </is>
       </c>
     </row>
@@ -32301,12 +32301,12 @@
       </c>
       <c r="C1769" t="inlineStr">
         <is>
-          <t>Can you log a meeting at 2 PM today?</t>
+          <t>Reserve a slot for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1769" t="inlineStr">
         <is>
-          <t>Start playing my party playlist.</t>
+          <t>Will it be windy today?</t>
         </is>
       </c>
     </row>
@@ -32319,12 +32319,12 @@
       </c>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>Schedule a meeting for 2 PM today.</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1770" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Tell me the weather forecast.</t>
         </is>
       </c>
     </row>
@@ -32337,12 +32337,12 @@
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t>Can you add a meeting to my planner for 2 PM today?</t>
+          <t>Log a work meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1771" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Do I need sunglasses today?</t>
         </is>
       </c>
     </row>
@@ -32355,12 +32355,12 @@
       </c>
       <c r="C1772" t="inlineStr">
         <is>
-          <t>Mark a meeting in my calendar for 2 PM today.</t>
+          <t>Block off 2 PM today for a meeting.</t>
         </is>
       </c>
       <c r="D1772" t="inlineStr">
         <is>
-          <t>Will it be windy today?</t>
+          <t>Is there a chance of snow today?</t>
         </is>
       </c>
     </row>
@@ -32373,12 +32373,12 @@
       </c>
       <c r="C1773" t="inlineStr">
         <is>
-          <t>Book a meeting for me at 2 PM today.</t>
+          <t>Book me for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1773" t="inlineStr">
         <is>
-          <t>What’s the forecast for today?</t>
+          <t>Is it going to rain today?</t>
         </is>
       </c>
     </row>
@@ -32391,12 +32391,12 @@
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Book a meeting for me at 2 PM today.</t>
         </is>
       </c>
       <c r="D1774" t="inlineStr">
         <is>
-          <t>Tell me the weather forecast.</t>
+          <t>Give me a weather update for the week.</t>
         </is>
       </c>
     </row>
@@ -32409,12 +32409,12 @@
       </c>
       <c r="C1775" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Put a meeting on my schedule for 2 PM today.</t>
         </is>
       </c>
       <c r="D1775" t="inlineStr">
         <is>
-          <t>Do I need an umbrella today?</t>
+          <t>Check today's weather conditions.</t>
         </is>
       </c>
     </row>
@@ -32427,12 +32427,12 @@
       </c>
       <c r="C1776" t="inlineStr">
         <is>
-          <t>Please add a meeting to my calendar for 2 PM today.</t>
+          <t>Set an event titled 'Meeting' for 2 PM today.</t>
         </is>
       </c>
       <c r="D1776" t="inlineStr">
         <is>
-          <t>Give me the weather update.</t>
+          <t>Is it going to rain today?</t>
         </is>
       </c>
     </row>
@@ -32445,12 +32445,12 @@
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t>Log a meeting at 2 PM today on my calendar.</t>
+          <t>Set a reminder for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1777" t="inlineStr">
         <is>
-          <t>How warm is it outside?</t>
+          <t>What’s the forecast for today?</t>
         </is>
       </c>
     </row>
@@ -32463,12 +32463,12 @@
       </c>
       <c r="C1778" t="inlineStr">
         <is>
-          <t>Reserve a slot for a meeting at 2 PM today.</t>
+          <t>Please add a meeting to my calendar for 2 PM today.</t>
         </is>
       </c>
       <c r="D1778" t="inlineStr">
         <is>
-          <t>Do I need sunglasses today?</t>
+          <t>Tell me the current weather.</t>
         </is>
       </c>
     </row>
@@ -32481,12 +32481,12 @@
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>Book a meeting for me at 2 PM today.</t>
+          <t>Add a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1779" t="inlineStr">
         <is>
-          <t>Give me a weather update for the week.</t>
+          <t>Will it be sunny today?</t>
         </is>
       </c>
     </row>
@@ -32499,12 +32499,12 @@
       </c>
       <c r="C1780" t="inlineStr">
         <is>
-          <t>Put a meeting on my schedule for 2 PM today.</t>
+          <t>Set a reminder for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1780" t="inlineStr">
         <is>
-          <t>Will it be sunny today?</t>
+          <t>What's the weather like today?</t>
         </is>
       </c>
     </row>
@@ -32517,12 +32517,12 @@
       </c>
       <c r="C1781" t="inlineStr">
         <is>
-          <t>Please add a meeting to my calendar for 2 PM today.</t>
+          <t>Can you log a meeting at 2 PM today?</t>
         </is>
       </c>
       <c r="D1781" t="inlineStr">
         <is>
-          <t>What's the weather like in my city?</t>
+          <t>Do I need sunglasses today?</t>
         </is>
       </c>
     </row>
@@ -32535,12 +32535,12 @@
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>Set a reminder for a meeting at 2 PM today.</t>
+          <t>Make an entry for a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1782" t="inlineStr">
         <is>
-          <t>What’s the forecast for today?</t>
+          <t>Show me live traffic updates for my work route.</t>
         </is>
       </c>
     </row>
@@ -32553,12 +32553,12 @@
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t>Set a calendar event for a meeting at 2 PM today.</t>
+          <t>Add a 2 PM meeting to my calendar today.</t>
         </is>
       </c>
       <c r="D1783" t="inlineStr">
         <is>
-          <t>What's the weather like in my city?</t>
+          <t>What’s my commute looking like today?</t>
         </is>
       </c>
     </row>
@@ -32571,12 +32571,12 @@
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Schedule a discussion for 2 PM today.</t>
         </is>
       </c>
       <c r="D1784" t="inlineStr">
         <is>
-          <t>Give me a weather update for the week.</t>
+          <t>Check the traffic to my workplace.</t>
         </is>
       </c>
     </row>
@@ -32589,12 +32589,12 @@
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Tell me the traffic conditions for my drive to work.</t>
         </is>
       </c>
     </row>
@@ -32607,12 +32607,12 @@
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>Add a 2 PM meeting to my calendar today.</t>
+          <t>Schedule an appointment at 2 PM today.</t>
         </is>
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Any traffic delays on my way to work?</t>
         </is>
       </c>
     </row>
@@ -32625,12 +32625,12 @@
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>Please add a meeting to my calendar for 2 PM today.</t>
+          <t>Place a meeting in my agenda for 2 PM today.</t>
         </is>
       </c>
       <c r="D1787" t="inlineStr">
         <is>
-          <t>Will I hit rush hour traffic on my way to work?</t>
+          <t>Should I take an alternate road to work?</t>
         </is>
       </c>
     </row>
@@ -32643,12 +32643,12 @@
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>Log a meeting at 2 PM today on my calendar.</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>Tell me the traffic conditions for my drive to work.</t>
+          <t>Is the traffic clear on my way to work?</t>
         </is>
       </c>
     </row>
@@ -32661,12 +32661,12 @@
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>Can you set up a meeting at 2 PM today?</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1789" t="inlineStr">
         <is>
-          <t>Do I need to leave earlier for work due to traffic?</t>
+          <t>How busy is the traffic to my office?</t>
         </is>
       </c>
     </row>
@@ -32679,12 +32679,12 @@
       </c>
       <c r="C1790" t="inlineStr">
         <is>
-          <t>Set an event titled 'Meeting' for 2 PM today.</t>
+          <t>Schedule an appointment at 2 PM today.</t>
         </is>
       </c>
       <c r="D1790" t="inlineStr">
         <is>
-          <t>Will I hit rush hour traffic on my way to work?</t>
+          <t>Do I need to take an alternate route to work?</t>
         </is>
       </c>
     </row>
@@ -32697,12 +32697,12 @@
       </c>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>Put a meeting on my schedule for 2 PM today.</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1791" t="inlineStr">
         <is>
-          <t>How’s the traffic to work right now?</t>
+          <t>Will I hit rush hour traffic on my way to work?</t>
         </is>
       </c>
     </row>
@@ -32715,12 +32715,12 @@
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t>Set a reminder for a meeting at 2 PM today.</t>
+          <t>Create a meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>Tell me the traffic conditions for my drive to work.</t>
+          <t>Is the highway clear for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -32733,12 +32733,12 @@
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>Place a meeting in my agenda for 2 PM today.</t>
+          <t>Schedule an appointment at 2 PM today.</t>
         </is>
       </c>
       <c r="D1793" t="inlineStr">
         <is>
-          <t>Should I take an alternate road to work?</t>
+          <t>Are there any roadblocks on my way to work?</t>
         </is>
       </c>
     </row>
@@ -32751,12 +32751,12 @@
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>Reserve a slot for a meeting at 2 PM today.</t>
+          <t>Put a meeting on my schedule for 2 PM today.</t>
         </is>
       </c>
       <c r="D1794" t="inlineStr">
         <is>
-          <t>Are there any roadblocks on my way to work?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -32769,12 +32769,12 @@
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t>Put a meeting on my schedule for 2 PM today.</t>
+          <t>Block off 2 PM today for a meeting.</t>
         </is>
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t>Is there heavy traffic on my route to work?</t>
+          <t>Please check the traffic for my work route.</t>
         </is>
       </c>
     </row>
@@ -32787,12 +32787,12 @@
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Can you add a meeting to my planner for 2 PM today?</t>
         </is>
       </c>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Is the traffic clear on my way to work?</t>
         </is>
       </c>
     </row>
@@ -32805,12 +32805,12 @@
       </c>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>Create a meeting at 2 PM today.</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1797" t="inlineStr">
         <is>
-          <t>Is the highway clear for my commute to work?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -32823,12 +32823,12 @@
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>Add a 2 PM meeting to my calendar today.</t>
+          <t>Log a work meeting at 2 PM today.</t>
         </is>
       </c>
       <c r="D1798" t="inlineStr">
         <is>
-          <t>Any construction work affecting my drive to work?</t>
+          <t>Give me a live traffic report for my work commute.</t>
         </is>
       </c>
     </row>
@@ -32841,12 +32841,12 @@
       </c>
       <c r="C1799" t="inlineStr">
         <is>
-          <t>Make an entry for a meeting at 2 PM today.</t>
+          <t>Can you add a meeting to my planner for 2 PM today?</t>
         </is>
       </c>
       <c r="D1799" t="inlineStr">
         <is>
-          <t>Any construction work affecting my drive to work?</t>
+          <t>Tell me the best route to work based on traffic.</t>
         </is>
       </c>
     </row>
@@ -32859,12 +32859,12 @@
       </c>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>Log a work meeting at 2 PM today.</t>
+          <t>Put a meeting on my schedule for 2 PM today.</t>
         </is>
       </c>
       <c r="D1800" t="inlineStr">
         <is>
-          <t>Show me live traffic updates for my work route.</t>
+          <t>Are there any roadblocks on my way to work?</t>
         </is>
       </c>
     </row>
@@ -32877,12 +32877,12 @@
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>Schedule an appointment at 2 PM today.</t>
+          <t>Schedule a discussion for 2 PM today.</t>
         </is>
       </c>
       <c r="D1801" t="inlineStr">
         <is>
-          <t>Give me a live traffic report for my work commute.</t>
+          <t>What’s my commute looking like today?</t>
         </is>
       </c>
     </row>
@@ -32895,12 +32895,12 @@
       </c>
       <c r="C1802" t="inlineStr">
         <is>
-          <t>Place a meeting in my agenda for 2 PM today.</t>
+          <t>Log a meeting at 2 PM today on my calendar.</t>
         </is>
       </c>
       <c r="D1802" t="inlineStr">
         <is>
-          <t>Do I need to leave earlier for work due to traffic?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -32913,12 +32913,12 @@
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>Can you add a meeting to my planner for 2 PM today?</t>
+          <t>Activate a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1803" t="inlineStr">
         <is>
-          <t>Is the traffic clear on my way to work?</t>
+          <t>I want to listen to my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32931,12 +32931,12 @@
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>Set a calendar event for a meeting at 2 PM today.</t>
+          <t>Please start a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1804" t="inlineStr">
         <is>
-          <t>Will I hit rush hour traffic on my way to work?</t>
+          <t>Kick off my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32949,12 +32949,12 @@
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>Can you add a meeting to my planner for 2 PM today?</t>
+          <t>I need a countdown for 20 minutes.</t>
         </is>
       </c>
       <c r="D1805" t="inlineStr">
         <is>
-          <t>Tell me the best route to work based on traffic.</t>
+          <t>Get the party playlist started.</t>
         </is>
       </c>
     </row>
@@ -32967,12 +32967,12 @@
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>Set a calendar event for a meeting at 2 PM today.</t>
+          <t>Turn on a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1806" t="inlineStr">
         <is>
-          <t>What’s the traffic like on my way to work?</t>
+          <t>Queue up my party playlist.</t>
         </is>
       </c>
     </row>
@@ -32985,12 +32985,12 @@
       </c>
       <c r="C1807" t="inlineStr">
         <is>
-          <t>Put a meeting on my schedule for 2 PM today.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>Are there any roadblocks on my way to work?</t>
+          <t>Get the party playlist started.</t>
         </is>
       </c>
     </row>
@@ -33003,12 +33003,12 @@
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t>Enable a 20-minute timer.</t>
+          <t>I need a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1808" t="inlineStr">
         <is>
-          <t>Put on my party playlist.</t>
+          <t>Let’s hear my party playlist.</t>
         </is>
       </c>
     </row>
@@ -33021,12 +33021,12 @@
       </c>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>Can you time me for 20 minutes?</t>
+          <t>Please enable a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>Launch my party playlist.</t>
+          <t>Let’s jam to my party playlist.</t>
         </is>
       </c>
     </row>
@@ -33039,12 +33039,12 @@
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t>Enable a 20-minute timer.</t>
+          <t>Schedule a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1810" t="inlineStr">
         <is>
-          <t>I want to listen to my party playlist.</t>
+          <t>Get the party playlist started.</t>
         </is>
       </c>
     </row>
@@ -33057,12 +33057,12 @@
       </c>
       <c r="C1811" t="inlineStr">
         <is>
-          <t>Activate a timer for 20 minutes.</t>
+          <t>Please start a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1811" t="inlineStr">
         <is>
-          <t>Play my favorite party songs.</t>
+          <t>Start my party playlist.</t>
         </is>
       </c>
     </row>
@@ -33075,12 +33075,12 @@
       </c>
       <c r="C1812" t="inlineStr">
         <is>
-          <t>Kick off a 20-minute timer.</t>
+          <t>Can you set a timer for 20 minutes?</t>
         </is>
       </c>
       <c r="D1812" t="inlineStr">
         <is>
-          <t>Run my party playlist.</t>
+          <t>Let’s hear my party playlist.</t>
         </is>
       </c>
     </row>
@@ -33093,7 +33093,7 @@
       </c>
       <c r="C1813" t="inlineStr">
         <is>
-          <t>I need a countdown for 20 minutes.</t>
+          <t>Begin a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1813" t="inlineStr">
@@ -33111,12 +33111,12 @@
       </c>
       <c r="C1814" t="inlineStr">
         <is>
-          <t>Can you set a timer for 20 minutes?</t>
+          <t>Enable a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1814" t="inlineStr">
         <is>
-          <t>Get the party playlist started.</t>
+          <t>Play my party playlist.</t>
         </is>
       </c>
     </row>
@@ -33129,12 +33129,12 @@
       </c>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>Let’s time 20 minutes.</t>
+          <t>Schedule a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1815" t="inlineStr">
         <is>
-          <t>Begin my party playlist.</t>
+          <t>Would you play my party playlist?</t>
         </is>
       </c>
     </row>
@@ -33147,7 +33147,7 @@
       </c>
       <c r="C1816" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>I need a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1816" t="inlineStr">
@@ -33165,12 +33165,12 @@
       </c>
       <c r="C1817" t="inlineStr">
         <is>
-          <t>Get a timer going for 20 minutes.</t>
+          <t>Start a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1817" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Do I need an umbrella today?</t>
         </is>
       </c>
     </row>
@@ -33183,12 +33183,12 @@
       </c>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>I need a 20-minute timer.</t>
+          <t>Start a countdown for 20 minutes.</t>
         </is>
       </c>
       <c r="D1818" t="inlineStr">
         <is>
-          <t>Kick off my party playlist.</t>
+          <t>Give me the weather update.</t>
         </is>
       </c>
     </row>
@@ -33201,12 +33201,12 @@
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t>Fire up a 20-minute timer.</t>
+          <t>Put on a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1819" t="inlineStr">
         <is>
-          <t>Put on some party music from my playlist.</t>
+          <t>Is there a chance of snow today?</t>
         </is>
       </c>
     </row>
@@ -33219,12 +33219,12 @@
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>Could you set a 20-minute timer?</t>
+          <t>Can you run a timer for 20 minutes?</t>
         </is>
       </c>
       <c r="D1820" t="inlineStr">
         <is>
-          <t>Please start playing my party playlist.</t>
+          <t>Check today's weather conditions.</t>
         </is>
       </c>
     </row>
@@ -33237,12 +33237,12 @@
       </c>
       <c r="C1821" t="inlineStr">
         <is>
-          <t>Initiate a 20-minute timer.</t>
+          <t>Can you set a timer for 20 minutes?</t>
         </is>
       </c>
       <c r="D1821" t="inlineStr">
         <is>
-          <t>Turn on my party playlist.</t>
+          <t>Tell me the weather forecast.</t>
         </is>
       </c>
     </row>
@@ -33255,12 +33255,12 @@
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t>Start a 20-minute timer.</t>
+          <t>Please start a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1822" t="inlineStr">
         <is>
-          <t>Get my party playlist going.</t>
+          <t>How's the weather right now?</t>
         </is>
       </c>
     </row>
@@ -33273,12 +33273,12 @@
       </c>
       <c r="C1823" t="inlineStr">
         <is>
-          <t>I need a 20-minute timer.</t>
+          <t>Put on a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1823" t="inlineStr">
         <is>
-          <t>I want to listen to my party playlist.</t>
+          <t>What’s the high and low temperature for today?</t>
         </is>
       </c>
     </row>
@@ -33291,12 +33291,12 @@
       </c>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Could you set a 20-minute timer?</t>
         </is>
       </c>
       <c r="D1824" t="inlineStr">
         <is>
-          <t>Turn on my party playlist.</t>
+          <t>Check the weather for this evening.</t>
         </is>
       </c>
     </row>
@@ -33309,12 +33309,12 @@
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Can you run a timer for 20 minutes?</t>
         </is>
       </c>
       <c r="D1825" t="inlineStr">
         <is>
-          <t>Get the party playlist started.</t>
+          <t>Give me a weather update for the week.</t>
         </is>
       </c>
     </row>
@@ -33332,7 +33332,7 @@
       </c>
       <c r="D1826" t="inlineStr">
         <is>
-          <t>Play my party playlist.</t>
+          <t>Is it going to be hot today?</t>
         </is>
       </c>
     </row>
@@ -33345,12 +33345,12 @@
       </c>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>Enable a 20-minute timer.</t>
+          <t>Set a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1827" t="inlineStr">
         <is>
-          <t>Kick off my party playlist.</t>
+          <t>How warm is it outside?</t>
         </is>
       </c>
     </row>
@@ -33363,12 +33363,12 @@
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t>Launch a timer for 20 minutes.</t>
+          <t>Could you set a 20-minute timer?</t>
         </is>
       </c>
       <c r="D1828" t="inlineStr">
         <is>
-          <t>Launch my party playlist.</t>
+          <t>What’s the high and low temperature for today?</t>
         </is>
       </c>
     </row>
@@ -33381,12 +33381,12 @@
       </c>
       <c r="C1829" t="inlineStr">
         <is>
-          <t>Kick off a 20-minute timer.</t>
+          <t>Please enable a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1829" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Check today's weather conditions.</t>
         </is>
       </c>
     </row>
@@ -33399,12 +33399,12 @@
       </c>
       <c r="C1830" t="inlineStr">
         <is>
-          <t>I need a 20-minute timer.</t>
+          <t>Can you time me for 20 minutes?</t>
         </is>
       </c>
       <c r="D1830" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>What’s the weather like this weekend?</t>
         </is>
       </c>
     </row>
@@ -33417,12 +33417,12 @@
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t>Begin counting down 20 minutes.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>Will it be windy today?</t>
+          <t>How humid is it outside?</t>
         </is>
       </c>
     </row>
@@ -33435,12 +33435,12 @@
       </c>
       <c r="C1832" t="inlineStr">
         <is>
-          <t>Count down 20 minutes.</t>
+          <t>Begin counting down 20 minutes.</t>
         </is>
       </c>
       <c r="D1832" t="inlineStr">
         <is>
-          <t>Give me a weather update for the week.</t>
+          <t>Check the weather for my location.</t>
         </is>
       </c>
     </row>
@@ -33453,12 +33453,12 @@
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>Set a timer for 20 minutes.</t>
+          <t>Turn on a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1833" t="inlineStr">
         <is>
-          <t>Is it cold outside?</t>
+          <t>How humid is it outside?</t>
         </is>
       </c>
     </row>
@@ -33471,12 +33471,12 @@
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>Start a countdown for 20 minutes.</t>
+          <t>Run a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1834" t="inlineStr">
         <is>
-          <t>Give me the weather update.</t>
+          <t>Will there be thunderstorms today?</t>
         </is>
       </c>
     </row>
@@ -33489,12 +33489,12 @@
       </c>
       <c r="C1835" t="inlineStr">
         <is>
-          <t>Put on a timer for 20 minutes.</t>
+          <t>Start a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1835" t="inlineStr">
         <is>
-          <t>Can you check the weather for me?</t>
+          <t>Check the weather for my location.</t>
         </is>
       </c>
     </row>
@@ -33507,12 +33507,12 @@
       </c>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>Put on a timer for 20 minutes.</t>
+          <t>Count down 20 minutes.</t>
         </is>
       </c>
       <c r="D1836" t="inlineStr">
         <is>
-          <t>Is there a chance of snow today?</t>
+          <t>What’s the weather like this weekend?</t>
         </is>
       </c>
     </row>
@@ -33525,12 +33525,12 @@
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t>Put on a timer for 20 minutes.</t>
+          <t>Turn on a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1837" t="inlineStr">
         <is>
-          <t>What’s the high and low temperature for today?</t>
+          <t>Tell me the weather forecast.</t>
         </is>
       </c>
     </row>
@@ -33543,12 +33543,12 @@
       </c>
       <c r="C1838" t="inlineStr">
         <is>
-          <t>Enable a 20-minute timer.</t>
+          <t>Put on a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1838" t="inlineStr">
         <is>
-          <t>Check today's weather conditions.</t>
+          <t>Do I need a jacket today?</t>
         </is>
       </c>
     </row>
@@ -33561,12 +33561,12 @@
       </c>
       <c r="C1839" t="inlineStr">
         <is>
-          <t>Would you start a timer for 20 minutes?</t>
+          <t>Start a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1839" t="inlineStr">
         <is>
-          <t>Tell me the weather forecast.</t>
+          <t>Please check the traffic for my work route.</t>
         </is>
       </c>
     </row>
@@ -33579,12 +33579,12 @@
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>I need a 20-minute timer.</t>
+          <t>Would you start a timer for 20 minutes?</t>
         </is>
       </c>
       <c r="D1840" t="inlineStr">
         <is>
-          <t>What’s the weather like this weekend?</t>
+          <t>Are there any roadblocks on my way to work?</t>
         </is>
       </c>
     </row>
@@ -33597,12 +33597,12 @@
       </c>
       <c r="C1841" t="inlineStr">
         <is>
-          <t>Enable a 20-minute timer.</t>
+          <t>Please start a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1841" t="inlineStr">
         <is>
-          <t>Is it going to be hot today?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -33615,12 +33615,12 @@
       </c>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>Begin counting down 20 minutes.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1842" t="inlineStr">
         <is>
-          <t>Give me a weather update for the week.</t>
+          <t>Do I need to leave earlier for work due to traffic?</t>
         </is>
       </c>
     </row>
@@ -33633,12 +33633,12 @@
       </c>
       <c r="C1843" t="inlineStr">
         <is>
-          <t>I want a timer for 20 minutes.</t>
+          <t>Launch a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1843" t="inlineStr">
         <is>
-          <t>Is there a chance of snow today?</t>
+          <t>Find me the quickest way to work right now.</t>
         </is>
       </c>
     </row>
@@ -33651,12 +33651,12 @@
       </c>
       <c r="C1844" t="inlineStr">
         <is>
-          <t>Get a timer going for 20 minutes.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1844" t="inlineStr">
         <is>
-          <t>Do I need sunglasses today?</t>
+          <t>Are there any accidents affecting my commute to work?</t>
         </is>
       </c>
     </row>
@@ -33669,12 +33669,12 @@
       </c>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>Count down 20 minutes.</t>
+          <t>Schedule a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1845" t="inlineStr">
         <is>
-          <t>What’s the weather like this weekend?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -33687,12 +33687,12 @@
       </c>
       <c r="C1846" t="inlineStr">
         <is>
-          <t>Enable a 20-minute timer.</t>
+          <t>Initiate a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1846" t="inlineStr">
         <is>
-          <t>Will there be thunderstorms today?</t>
+          <t>Is traffic moving smoothly to my workplace?</t>
         </is>
       </c>
     </row>
@@ -33705,12 +33705,12 @@
       </c>
       <c r="C1847" t="inlineStr">
         <is>
-          <t>Begin counting down 20 minutes.</t>
+          <t>Activate a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1847" t="inlineStr">
         <is>
-          <t>How’s the weather tomorrow?</t>
+          <t>What’s the estimated travel time to work now?</t>
         </is>
       </c>
     </row>
@@ -33723,12 +33723,12 @@
       </c>
       <c r="C1848" t="inlineStr">
         <is>
-          <t>Put on a timer for 20 minutes.</t>
+          <t>Turn on a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1848" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Are there any accidents affecting my commute to work?</t>
         </is>
       </c>
     </row>
@@ -33741,12 +33741,12 @@
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>Let’s time 20 minutes.</t>
+          <t>Kick off a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1849" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Are there any accidents affecting my commute to work?</t>
         </is>
       </c>
     </row>
@@ -33759,12 +33759,12 @@
       </c>
       <c r="C1850" t="inlineStr">
         <is>
-          <t>I need a 20-minute timer.</t>
+          <t>Start a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1850" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>How busy is the traffic to my office?</t>
         </is>
       </c>
     </row>
@@ -33777,12 +33777,12 @@
       </c>
       <c r="C1851" t="inlineStr">
         <is>
-          <t>Could you set a 20-minute timer?</t>
+          <t>Please start a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1851" t="inlineStr">
         <is>
-          <t>Are there any accidents affecting my commute to work?</t>
+          <t>Give me a live traffic report for my work commute.</t>
         </is>
       </c>
     </row>
@@ -33795,12 +33795,12 @@
       </c>
       <c r="C1852" t="inlineStr">
         <is>
-          <t>Schedule a timer for 20 minutes.</t>
+          <t>Begin counting down 20 minutes.</t>
         </is>
       </c>
       <c r="D1852" t="inlineStr">
         <is>
-          <t>What’s the traffic like on my way to work?</t>
+          <t>Any traffic delays on my way to work?</t>
         </is>
       </c>
     </row>
@@ -33813,12 +33813,12 @@
       </c>
       <c r="C1853" t="inlineStr">
         <is>
-          <t>Kick off a 20-minute timer.</t>
+          <t>Fire up a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>Check the traffic to my workplace.</t>
+          <t>What’s the traffic like on my way to work?</t>
         </is>
       </c>
     </row>
@@ -33831,12 +33831,12 @@
       </c>
       <c r="C1854" t="inlineStr">
         <is>
-          <t>Could you set a 20-minute timer?</t>
+          <t>Make a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>Find me the quickest way to work right now.</t>
+          <t>What’s the traffic like on my way to work?</t>
         </is>
       </c>
     </row>
@@ -33849,12 +33849,12 @@
       </c>
       <c r="C1855" t="inlineStr">
         <is>
-          <t>Make a 20-minute timer.</t>
+          <t>Launch a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1855" t="inlineStr">
         <is>
-          <t>Please check the traffic for my work route.</t>
+          <t>What’s the estimated travel time to work now?</t>
         </is>
       </c>
     </row>
@@ -33867,12 +33867,12 @@
       </c>
       <c r="C1856" t="inlineStr">
         <is>
-          <t>Activate a timer for 20 minutes.</t>
+          <t>I want a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1856" t="inlineStr">
         <is>
-          <t>What’s the estimated travel time to work now?</t>
+          <t>Should I take an alternate road to work?</t>
         </is>
       </c>
     </row>
@@ -33890,7 +33890,7 @@
       </c>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>Is there heavy traffic on my route to work?</t>
+          <t>Check the traffic to my workplace.</t>
         </is>
       </c>
     </row>
@@ -33903,12 +33903,12 @@
       </c>
       <c r="C1858" t="inlineStr">
         <is>
-          <t>Would you start a timer for 20 minutes?</t>
+          <t>Can you time me for 20 minutes?</t>
         </is>
       </c>
       <c r="D1858" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Check for any traffic jams on my way to work.</t>
         </is>
       </c>
     </row>
@@ -33921,12 +33921,12 @@
       </c>
       <c r="C1859" t="inlineStr">
         <is>
-          <t>Start a countdown for 20 minutes.</t>
+          <t>Please start a timer for 20 minutes.</t>
         </is>
       </c>
       <c r="D1859" t="inlineStr">
         <is>
-          <t>How’s my commute to work today?</t>
+          <t>Can you check the traffic for my commute to work?</t>
         </is>
       </c>
     </row>
@@ -33939,12 +33939,12 @@
       </c>
       <c r="C1860" t="inlineStr">
         <is>
-          <t>Time me for 20 minutes.</t>
+          <t>Run a 20-minute timer.</t>
         </is>
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>Give me a live traffic report for my work commute.</t>
+          <t>Are there any roadblocks on my way to work?</t>
         </is>
       </c>
     </row>
@@ -33957,12 +33957,12 @@
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t>Can you time me for 20 minutes?</t>
+          <t>Turn on my party playlist.</t>
         </is>
       </c>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>Any traffic delays on my way to work?</t>
+          <t>What’s the forecast for today?</t>
         </is>
       </c>
     </row>
@@ -33975,12 +33975,12 @@
       </c>
       <c r="C1862" t="inlineStr">
         <is>
-          <t>I want a timer for 20 minutes.</t>
+          <t>Can you start my party playlist?</t>
         </is>
       </c>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>How’s the traffic to work right now?</t>
+          <t>Is it going to rain today?</t>
         </is>
       </c>
     </row>
@@ -33993,12 +33993,12 @@
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>Kick off a 20-minute timer.</t>
+          <t>Put on my party playlist.</t>
         </is>
       </c>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>Tell me the traffic conditions for my drive to work.</t>
+          <t>Will there be thunderstorms today?</t>
         </is>
       </c>
     </row>
@@ -34011,12 +34011,12 @@
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>Launch a timer for 20 minutes.</t>
+          <t>Would you play my party playlist?</t>
         </is>
       </c>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>Find me the quickest way to work right now.</t>
+          <t>Give me a weather update for the week.</t>
         </is>
       </c>
     </row>
@@ -34029,12 +34029,12 @@
       </c>
       <c r="C1865" t="inlineStr">
         <is>
-          <t>Would you start a timer for 20 minutes?</t>
+          <t>Please start playing my party playlist.</t>
         </is>
       </c>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>How's the weather looking for today?</t>
         </is>
       </c>
     </row>
@@ -34047,12 +34047,12 @@
       </c>
       <c r="C1866" t="inlineStr">
         <is>
-          <t>Can you run a timer for 20 minutes?</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
       <c r="D1866" t="inlineStr">
         <is>
-          <t>Check the traffic to my workplace.</t>
+          <t>Is it going to rain today?</t>
         </is>
       </c>
     </row>
@@ -34065,12 +34065,12 @@
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t>Please start a timer for 20 minutes.</t>
+          <t>Turn on my party playlist.</t>
         </is>
       </c>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>Check the traffic to my workplace.</t>
+          <t>How warm is it outside?</t>
         </is>
       </c>
     </row>
@@ -34083,12 +34083,12 @@
       </c>
       <c r="C1868" t="inlineStr">
         <is>
-          <t>Please start a timer for 20 minutes.</t>
+          <t>Start playing my party playlist.</t>
         </is>
       </c>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>Can you check the traffic for my commute to work?</t>
+          <t>How's the weather right now?</t>
         </is>
       </c>
     </row>
@@ -34101,12 +34101,12 @@
       </c>
       <c r="C1869" t="inlineStr">
         <is>
-          <t>I want a timer for 20 minutes.</t>
+          <t>I need my party playlist now.</t>
         </is>
       </c>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>Give me an update on the traffic to work.</t>
+          <t>How's the weather right now?</t>
         </is>
       </c>
     </row>
@@ -34119,12 +34119,12 @@
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t>Begin a timer for 20 minutes.</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>Tell me the traffic conditions for my drive to work.</t>
+          <t>How's the weather right now?</t>
         </is>
       </c>
     </row>
@@ -34137,12 +34137,12 @@
       </c>
       <c r="C1871" t="inlineStr">
         <is>
-          <t>Begin counting down 20 minutes.</t>
+          <t>Please play my party playlist.</t>
         </is>
       </c>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>Is there heavy traffic on my route to work?</t>
+          <t>Tell me the current weather.</t>
         </is>
       </c>
     </row>
@@ -34155,12 +34155,12 @@
       </c>
       <c r="C1872" t="inlineStr">
         <is>
-          <t>Would you start a timer for 20 minutes?</t>
+          <t>Get the party playlist started.</t>
         </is>
       </c>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>Show me live traffic updates for my work route.</t>
+          <t>Give me the weather update.</t>
         </is>
       </c>
     </row>
@@ -34173,12 +34173,12 @@
       </c>
       <c r="C1873" t="inlineStr">
         <is>
-          <t>Start my party playlist.</t>
+          <t>Put on some party music from my playlist.</t>
         </is>
       </c>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>How's the weather looking for today?</t>
+          <t>What’s the forecast for today?</t>
         </is>
       </c>
     </row>
@@ -34191,12 +34191,12 @@
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t>Launch my party playlist.</t>
+          <t>Shuffle my party playlist.</t>
         </is>
       </c>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>Will it be sunny today?</t>
+          <t>Do I need sunglasses today?</t>
         </is>
       </c>
     </row>
@@ -34209,12 +34209,12 @@
       </c>
       <c r="C1875" t="inlineStr">
         <is>
-          <t>Launch my party playlist.</t>
+          <t>Activate my party playlist.</t>
         </is>
       </c>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>Do I need an umbrella today?</t>
+          <t>What’s the forecast for today?</t>
         </is>
       </c>
     </row>
@@ -34227,12 +34227,12 @@
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>Turn up my party playlist.</t>
+          <t>Get my party playlist going.</t>
         </is>
       </c>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>What’s the weather like this weekend?</t>
+          <t>Tell me the weather forecast.</t>
         </is>
       </c>
     </row>
@@ -34245,12 +34245,12 @@
       </c>
       <c r="C1877" t="inlineStr">
         <is>
-          <t>Put on my party playlist.</t>
+          <t>Let’s jam to my party playlist.</t>
         </is>
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>Will there be thunderstorms today?</t>
+          <t>What's the temperature outside?</t>
         </is>
       </c>
     </row>
@@ -34263,12 +34263,12 @@
       </c>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>Turn up my party playlist.</t>
+          <t>Put on some party music from my playlist.</t>
         </is>
       </c>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>Tell me the weather forecast.</t>
+          <t>How's the weather looking for today?</t>
         </is>
       </c>
     </row>
@@ -34281,12 +34281,12 @@
       </c>
       <c r="C1879" t="inlineStr">
         <is>
-          <t>Would you play my party playlist?</t>
+          <t>Put on my party playlist.</t>
         </is>
       </c>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>Give me a weather update for the week.</t>
+          <t>Check the weather for my location.</t>
         </is>
       </c>
     </row>
@@ -34299,12 +34299,12 @@
       </c>
       <c r="C1880" t="inlineStr">
         <is>
-          <t>Play my party playlist.</t>
+          <t>Play my party mix.</t>
         </is>
       </c>
       <c r="D1880" t="inlineStr">
         <is>
-          <t>What's the weather like in my city?</t>
+          <t>How warm is it outside?</t>
         </is>
       </c>
     </row>
@@ -34317,12 +34317,12 @@
       </c>
       <c r="C1881" t="inlineStr">
         <is>
-          <t>Put on my party playlist.</t>
+          <t>Play my party playlist.</t>
         </is>
       </c>
       <c r="D1881" t="inlineStr">
         <is>
-          <t>Tell me the weather forecast.</t>
+          <t>Give me the latest weather report.</t>
         </is>
       </c>
     </row>
@@ -34335,12 +34335,12 @@
       </c>
       <c r="C1882" t="inlineStr">
         <is>
-          <t>Kick off my party playlist.</t>
+          <t>Get my party playlist going.</t>
         </is>
       </c>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>Check the weather for my location.</t>
+          <t>Can you check the weather for me?</t>
         </is>
       </c>
     </row>
@@ -34353,12 +34353,12 @@
       </c>
       <c r="C1883" t="inlineStr">
         <is>
-          <t>Get the party playlist started.</t>
+          <t>Let’s jam to my party playlist.</t>
         </is>
       </c>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>Give me the weather update.</t>
+          <t>How humid is it outside?</t>
         </is>
       </c>
     </row>
@@ -34371,12 +34371,12 @@
       </c>
       <c r="C1884" t="inlineStr">
         <is>
-          <t>Begin my party playlist.</t>
+          <t>Turn up my party playlist.</t>
         </is>
       </c>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Give me a live traffic report for my work commute.</t>
         </is>
       </c>
     </row>
@@ -34389,12 +34389,12 @@
       </c>
       <c r="C1885" t="inlineStr">
         <is>
-          <t>Can you start my party playlist?</t>
+          <t>Let’s jam to my party playlist.</t>
         </is>
       </c>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>Is it going to be hot today?</t>
+          <t>What’s my commute looking like today?</t>
         </is>
       </c>
     </row>
@@ -34407,12 +34407,12 @@
       </c>
       <c r="C1886" t="inlineStr">
         <is>
-          <t>Would you play my party playlist?</t>
+          <t>Run my party playlist.</t>
         </is>
       </c>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>What's the temperature outside?</t>
+          <t>Do I need to leave earlier for work due to traffic?</t>
         </is>
       </c>
     </row>
@@ -34425,12 +34425,12 @@
       </c>
       <c r="C1887" t="inlineStr">
         <is>
-          <t>Time for my party playlist—play it!</t>
+          <t>Kick off my party playlist.</t>
         </is>
       </c>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>Check today's weather conditions.</t>
+          <t>Do I need to take an alternate route to work?</t>
         </is>
       </c>
     </row>
@@ -34443,12 +34443,12 @@
       </c>
       <c r="C1888" t="inlineStr">
         <is>
-          <t>Put on my party playlist.</t>
+          <t>Kick off my party playlist.</t>
         </is>
       </c>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>Can you check the weather for me?</t>
+          <t>Check for any traffic jams on my way to work.</t>
         </is>
       </c>
     </row>
@@ -34461,12 +34461,12 @@
       </c>
       <c r="C1889" t="inlineStr">
         <is>
-          <t>Please play my party playlist.</t>
+          <t>Get my party playlist going.</t>
         </is>
       </c>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>Tell me the weather forecast.</t>
+          <t>Please check the traffic for my work route.</t>
         </is>
       </c>
     </row>
@@ -34479,12 +34479,12 @@
       </c>
       <c r="C1890" t="inlineStr">
         <is>
-          <t>Begin my party playlist.</t>
+          <t>Get my party playlist going.</t>
         </is>
       </c>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>Give me an update on the traffic to work.</t>
+          <t>Can you find the fastest way to work given the traffic?</t>
         </is>
       </c>
     </row>
@@ -34497,12 +34497,12 @@
       </c>
       <c r="C1891" t="inlineStr">
         <is>
-          <t>I want to listen to my party playlist.</t>
+          <t>Can you start my party playlist?</t>
         </is>
       </c>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>What’s the estimated travel time to work now?</t>
+          <t>Give me a live traffic report for my work commute.</t>
         </is>
       </c>
     </row>
@@ -34515,12 +34515,12 @@
       </c>
       <c r="C1892" t="inlineStr">
         <is>
-          <t>Let’s jam to my party playlist.</t>
+          <t>Please play my party playlist.</t>
         </is>
       </c>
       <c r="D1892" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Any construction work affecting my drive to work?</t>
         </is>
       </c>
     </row>
@@ -34533,12 +34533,12 @@
       </c>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>Kick off my party playlist.</t>
+          <t>Activate my party playlist.</t>
         </is>
       </c>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>Are there any accidents affecting my commute to work?</t>
         </is>
       </c>
     </row>
@@ -34551,12 +34551,12 @@
       </c>
       <c r="C1894" t="inlineStr">
         <is>
-          <t>Run my party playlist.</t>
+          <t>Play my party playlist.</t>
         </is>
       </c>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>Any traffic delays on my way to work?</t>
+          <t>Show me live traffic updates for my work route.</t>
         </is>
       </c>
     </row>
@@ -34569,12 +34569,12 @@
       </c>
       <c r="C1895" t="inlineStr">
         <is>
-          <t>Please play my party playlist.</t>
+          <t>Turn up my party playlist.</t>
         </is>
       </c>
       <c r="D1895" t="inlineStr">
         <is>
-          <t>Show me live traffic updates for my work route.</t>
+          <t>Give me an update on the traffic to work.</t>
         </is>
       </c>
     </row>
@@ -34587,12 +34587,12 @@
       </c>
       <c r="C1896" t="inlineStr">
         <is>
-          <t>I need my party playlist now.</t>
+          <t>Put on some party music from my playlist.</t>
         </is>
       </c>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>How’s the traffic to work right now?</t>
+          <t>What’s the estimated travel time to work now?</t>
         </is>
       </c>
     </row>
@@ -34605,12 +34605,12 @@
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t>Let’s jam to my party playlist.</t>
+          <t>Play my party playlist.</t>
         </is>
       </c>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>How’s the traffic to work right now?</t>
+          <t>Tell me the traffic conditions for my drive to work.</t>
         </is>
       </c>
     </row>
@@ -34623,12 +34623,12 @@
       </c>
       <c r="C1898" t="inlineStr">
         <is>
-          <t>Play my favorite party songs.</t>
+          <t>Begin my party playlist.</t>
         </is>
       </c>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>Check for any traffic jams on my way to work.</t>
+          <t>Check the traffic to my workplace.</t>
         </is>
       </c>
     </row>
@@ -34641,12 +34641,12 @@
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>Can you play my party playlist?</t>
+          <t>Queue up my party playlist.</t>
         </is>
       </c>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>What’s my commute looking like today?</t>
         </is>
       </c>
     </row>
@@ -34659,12 +34659,12 @@
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t>Kick off my party playlist.</t>
+          <t>Get my party playlist going.</t>
         </is>
       </c>
       <c r="D1900" t="inlineStr">
         <is>
-          <t>Give me a live traffic report for my work commute.</t>
+          <t>Will I hit rush hour traffic on my way to work?</t>
         </is>
       </c>
     </row>
@@ -34677,12 +34677,12 @@
       </c>
       <c r="C1901" t="inlineStr">
         <is>
-          <t>Start playing my party playlist.</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>Check the traffic to my workplace.</t>
+          <t>Please check the traffic for my work route.</t>
         </is>
       </c>
     </row>
@@ -34695,12 +34695,12 @@
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Start my party playlist.</t>
+          <t>Would you play my party playlist?</t>
         </is>
       </c>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>How’s the traffic to work right now?</t>
+          <t>What’s the estimated travel time to work now?</t>
         </is>
       </c>
     </row>
@@ -34713,12 +34713,12 @@
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>Play my party mix.</t>
+          <t>Would you play my party playlist?</t>
         </is>
       </c>
       <c r="D1903" t="inlineStr">
         <is>
-          <t>Can you find the fastest way to work given the traffic?</t>
+          <t>How’s the traffic to work right now?</t>
         </is>
       </c>
     </row>
@@ -34731,12 +34731,12 @@
       </c>
       <c r="C1904" t="inlineStr">
         <is>
-          <t>Turn up my party playlist.</t>
+          <t>I need my party playlist now.</t>
         </is>
       </c>
       <c r="D1904" t="inlineStr">
         <is>
-          <t>Give me an update on the traffic to work.</t>
+          <t>Find me the quickest way to work right now.</t>
         </is>
       </c>
     </row>
@@ -34749,12 +34749,12 @@
       </c>
       <c r="C1905" t="inlineStr">
         <is>
-          <t>Let’s hear my party playlist.</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
       <c r="D1905" t="inlineStr">
         <is>
-          <t>Are there any accidents affecting my commute to work?</t>
+          <t>Check for any traffic jams on my way to work.</t>
         </is>
       </c>
     </row>
@@ -34767,12 +34767,12 @@
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>Play my favorite party songs.</t>
+          <t>Play the party playlist now.</t>
         </is>
       </c>
       <c r="D1906" t="inlineStr">
         <is>
-          <t>Any traffic delays on my way to work?</t>
+          <t>How busy is the traffic to my office?</t>
         </is>
       </c>
     </row>
@@ -34785,12 +34785,12 @@
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>Shuffle my party playlist.</t>
+          <t>Start my party playlist.</t>
         </is>
       </c>
       <c r="D1907" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>What’s the traffic like on my way to work?</t>
         </is>
       </c>
     </row>
@@ -34803,12 +34803,12 @@
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>Play my favorite party songs.</t>
+          <t>I need my party playlist now.</t>
         </is>
       </c>
       <c r="D1908" t="inlineStr">
         <is>
-          <t>How’s my commute to work today?</t>
+          <t>Is traffic moving smoothly to my workplace?</t>
         </is>
       </c>
     </row>
@@ -34821,12 +34821,12 @@
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>Play the party playlist now.</t>
+          <t>Do I need an umbrella today?</t>
         </is>
       </c>
       <c r="D1909" t="inlineStr">
         <is>
-          <t>How busy is the traffic to my office?</t>
+          <t>Find me the quickest way to work right now.</t>
         </is>
       </c>
     </row>
@@ -34839,12 +34839,12 @@
       </c>
       <c r="C1910" t="inlineStr">
         <is>
-          <t>Let’s hear my party playlist.</t>
+          <t>Give me the weather update.</t>
         </is>
       </c>
       <c r="D1910" t="inlineStr">
         <is>
-          <t>Any construction work affecting my drive to work?</t>
+          <t>Check the traffic to my workplace.</t>
         </is>
       </c>
     </row>
@@ -34857,12 +34857,12 @@
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>Start my party playlist.</t>
+          <t>What’s the weather like this weekend?</t>
         </is>
       </c>
       <c r="D1911" t="inlineStr">
         <is>
-          <t>What’s the traffic like on my way to work?</t>
+          <t>Tell me the traffic conditions for my drive to work.</t>
         </is>
       </c>
     </row>
@@ -34875,12 +34875,12 @@
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>Check the weather for this evening.</t>
+          <t>Give me the latest weather report.</t>
         </is>
       </c>
       <c r="D1912" t="inlineStr">
         <is>
-          <t>Tell me the best route to work based on traffic.</t>
+          <t>Check for any traffic jams on my way to work.</t>
         </is>
       </c>
     </row>
@@ -34893,12 +34893,12 @@
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>Is there a chance of snow today?</t>
+          <t>Give me a weather update for the week.</t>
         </is>
       </c>
       <c r="D1913" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>Give me an update on the traffic to work.</t>
         </is>
       </c>
     </row>
@@ -34911,12 +34911,12 @@
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>What’s the weather like this weekend?</t>
+          <t>Will there be thunderstorms today?</t>
         </is>
       </c>
       <c r="D1914" t="inlineStr">
         <is>
-          <t>Tell me the traffic conditions for my drive to work.</t>
+          <t>Tell me the best route to work based on traffic.</t>
         </is>
       </c>
     </row>
@@ -34929,12 +34929,12 @@
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>Is it going to rain today?</t>
+          <t>What’s the weather like this weekend?</t>
         </is>
       </c>
       <c r="D1915" t="inlineStr">
         <is>
-          <t>Give me a live traffic report for my work commute.</t>
+          <t>Is the traffic clear on my way to work?</t>
         </is>
       </c>
     </row>
@@ -34947,12 +34947,12 @@
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>What’s the forecast for today?</t>
+          <t>How warm is it outside?</t>
         </is>
       </c>
       <c r="D1916" t="inlineStr">
         <is>
-          <t>Are there any roadblocks on my way to work?</t>
+          <t>Is traffic moving smoothly to my workplace?</t>
         </is>
       </c>
     </row>
@@ -34965,12 +34965,12 @@
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>Do I need a jacket today?</t>
+          <t>Can you check the weather for me?</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr">
         <is>
-          <t>Check the traffic to my workplace.</t>
+          <t>Is traffic moving smoothly to my workplace?</t>
         </is>
       </c>
     </row>
@@ -34983,7 +34983,7 @@
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>What’s the high and low temperature for today?</t>
+          <t>Check the weather for my location.</t>
         </is>
       </c>
       <c r="D1918" t="inlineStr">
@@ -35001,12 +35001,12 @@
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Will it be sunny today?</t>
+          <t>Check today's weather conditions.</t>
         </is>
       </c>
       <c r="D1919" t="inlineStr">
         <is>
-          <t>Do I need to take an alternate route to work?</t>
+          <t>How’s my commute to work today?</t>
         </is>
       </c>
     </row>
@@ -35019,12 +35019,12 @@
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>What's the weather like today?</t>
+          <t>What’s the high and low temperature for today?</t>
         </is>
       </c>
       <c r="D1920" t="inlineStr">
         <is>
-          <t>Any construction work affecting my drive to work?</t>
+          <t>Tell me the best route to work based on traffic.</t>
         </is>
       </c>
     </row>
@@ -35037,12 +35037,12 @@
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>Do I need an umbrella today?</t>
+          <t>Check today's weather conditions.</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>What’s my commute looking like today?</t>
+          <t>Tell me the best route to work based on traffic.</t>
         </is>
       </c>
     </row>
@@ -35055,12 +35055,12 @@
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Do I need an umbrella today?</t>
+          <t>Give me the latest weather report.</t>
         </is>
       </c>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>What’s the traffic like on my way to work?</t>
+          <t>Give me a live traffic report for my work commute.</t>
         </is>
       </c>
     </row>
@@ -35091,12 +35091,12 @@
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>Check the weather for this evening.</t>
+          <t>Is it going to be hot today?</t>
         </is>
       </c>
       <c r="D1924" t="inlineStr">
         <is>
-          <t>Are there any roadblocks on my way to work?</t>
+          <t>How busy is the traffic to my office?</t>
         </is>
       </c>
     </row>
@@ -35114,7 +35114,7 @@
       </c>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>Check for any traffic jams on my way to work.</t>
+          <t>Please check the traffic for my work route.</t>
         </is>
       </c>
     </row>
@@ -35127,12 +35127,12 @@
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>How’s the weather tomorrow?</t>
+          <t>Will it be sunny today?</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>Show me live traffic updates for my work route.</t>
+          <t>What’s my commute looking like today?</t>
         </is>
       </c>
     </row>
@@ -35145,12 +35145,12 @@
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>Give me the latest weather report.</t>
+          <t>Is there a chance of snow today?</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>What’s the estimated travel time to work now?</t>
+          <t>Check for any traffic jams on my way to work.</t>
         </is>
       </c>
     </row>
@@ -35163,12 +35163,12 @@
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Is it going to be hot today?</t>
+          <t>How’s the weather tomorrow?</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>How busy is the traffic to my office?</t>
+          <t>Show me live traffic updates for my work route.</t>
         </is>
       </c>
     </row>
@@ -35181,12 +35181,12 @@
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Do I need an umbrella today?</t>
+          <t>Is it going to be hot today?</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>Will I hit rush hour traffic on my way to work?</t>
+          <t>How busy is the traffic to my office?</t>
         </is>
       </c>
     </row>
@@ -35199,12 +35199,12 @@
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Will it be windy today?</t>
+          <t>Do I need an umbrella today?</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>Please check the traffic for my work route.</t>
+          <t>Will I hit rush hour traffic on my way to work?</t>
         </is>
       </c>
     </row>
@@ -35217,12 +35217,12 @@
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>What’s the weather like this weekend?</t>
+          <t>Tell me the weather forecast.</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>Give me a live traffic report for my work commute.</t>
+          <t>Is traffic moving smoothly to my workplace?</t>
         </is>
       </c>
     </row>
